--- a/soundwork/sounds.xlsx
+++ b/soundwork/sounds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3CB070-30E1-42A3-898F-E56F9AD14E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CEFC3B-9DF6-4803-8D86-6DD949EEBFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10140" yWindow="0" windowWidth="10455" windowHeight="10905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="434">
   <si>
     <t>XA100003</t>
   </si>
@@ -1300,6 +1300,36 @@
   </si>
   <si>
     <t>When I was younger, I ran a bit wild. It took a lot of strength and patience on my father's part to set me on the right path. Things would have been much different for me if he were a lesser man.</t>
+  </si>
+  <si>
+    <t>XA100120</t>
+  </si>
+  <si>
+    <t>Sarevok.</t>
+  </si>
+  <si>
+    <t>XA100116</t>
+  </si>
+  <si>
+    <t>XA100117</t>
+  </si>
+  <si>
+    <t>XA100118</t>
+  </si>
+  <si>
+    <t>XA100119</t>
+  </si>
+  <si>
+    <t>Careful! This place was practically made for an ambush.</t>
+  </si>
+  <si>
+    <t>Time will tell…</t>
+  </si>
+  <si>
+    <t>Having a famous hero around is handy, but it also seems to attract trouble.</t>
+  </si>
+  <si>
+    <t>Hadn’t given it much thought…</t>
   </si>
 </sst>
 </file>
@@ -1643,10 +1673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B215"/>
+  <dimension ref="A1:B220"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+      <selection activeCell="B219" sqref="B219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,6 +3406,46 @@
         <v>423</v>
       </c>
     </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>425</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">

--- a/soundwork/sounds.xlsx
+++ b/soundwork/sounds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CEFC3B-9DF6-4803-8D86-6DD949EEBFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7367A537-C450-43A8-B38B-4165674E4878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="438">
   <si>
     <t>XA100003</t>
   </si>
@@ -1330,6 +1330,18 @@
   </si>
   <si>
     <t>Hadn’t given it much thought…</t>
+  </si>
+  <si>
+    <t>XA100121</t>
+  </si>
+  <si>
+    <t>Have I killed before? Yes — but never in cold blood. Never without cause.</t>
+  </si>
+  <si>
+    <t>XA100122</t>
+  </si>
+  <si>
+    <t>Rohma… (sad)</t>
   </si>
 </sst>
 </file>
@@ -1673,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B220"/>
+  <dimension ref="A1:B222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3446,6 +3458,22 @@
         <v>425</v>
       </c>
     </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">

--- a/soundwork/sounds.xlsx
+++ b/soundwork/sounds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7367A537-C450-43A8-B38B-4165674E4878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FE1B8E-AC9E-4B66-ACA7-A5FC91BBE2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/soundwork/sounds.xlsx
+++ b/soundwork/sounds.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan_v\Beamdog Library\EET - Modding\00783\LCA\soundwork\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FE1B8E-AC9E-4B66-ACA7-A5FC91BBE2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA5B207-554B-484B-B432-901578B87277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="444">
   <si>
     <t>XA100003</t>
   </si>
@@ -1342,6 +1342,24 @@
   </si>
   <si>
     <t>Rohma… (sad)</t>
+  </si>
+  <si>
+    <t>XA100125</t>
+  </si>
+  <si>
+    <t>Back to the city, then, as soon as we can.</t>
+  </si>
+  <si>
+    <t>XA100123</t>
+  </si>
+  <si>
+    <t>XA100124</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>The stars… They're beautiful tonight.</t>
   </si>
 </sst>
 </file>
@@ -1685,10 +1703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B222"/>
+  <dimension ref="A1:B225"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3474,6 +3492,30 @@
         <v>437</v>
       </c>
     </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">

--- a/soundwork/sounds.xlsx
+++ b/soundwork/sounds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\BGModding - LCA\Game\00783\LCA\soundwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA5B207-554B-484B-B432-901578B87277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA4D13F-782A-4D1D-9CE0-C97814C91C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="448">
   <si>
     <t>XA100003</t>
   </si>
@@ -1360,6 +1360,18 @@
   </si>
   <si>
     <t>The stars… They're beautiful tonight.</t>
+  </si>
+  <si>
+    <t>XA100142</t>
+  </si>
+  <si>
+    <t>There's a reason for that.</t>
+  </si>
+  <si>
+    <t>XA100141</t>
+  </si>
+  <si>
+    <t>Come here…</t>
   </si>
 </sst>
 </file>
@@ -1703,10 +1715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B225"/>
+  <dimension ref="A1:B227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3516,6 +3528,22 @@
         <v>439</v>
       </c>
     </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B167">
